--- a/va_facility_data_2025-02-20/Okeechobee VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Okeechobee%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Okeechobee VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Okeechobee%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdd884ebf25bf4eda8b26073ce9e19e90"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R168b7255774946549fc2c38a116c9f2a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R04ab84eee0234a57913e20ed0dc3a926"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R468560a5f77c4e8dadadf1cd2ddbd815"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R66969066538b452d8ec03f12573573ba"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1cddbf2920434d008178c4b9f9c08599"/>
   </x:sheets>
 </x:workbook>
 </file>
